--- a/Notebooks Repair 150421.xlsx
+++ b/Notebooks Repair 150421.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,11 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -316,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,10 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,14 +557,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -578,7 +579,7 @@
     <col min="14" max="14" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -588,18 +589,18 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" t="s">
         <v>16</v>
       </c>
@@ -607,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
@@ -626,15 +627,15 @@
       <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="4"/>
       <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="K3" t="s">
         <v>14</v>
       </c>
@@ -642,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -674,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -709,7 +710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -744,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -782,134 +783,138 @@
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.33" right="0.26" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="2" max="2" width="22.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -921,6 +926,8 @@
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>